--- a/Nouveau backlog.xlsx
+++ b/Nouveau backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubRepos\MiniTramways\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F127175E-524E-4110-92B4-C0E88497A363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF7472F-21BF-4E16-8811-69EE6B391658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F765A07-F6B4-4E3C-A596-2A823F0537A9}"/>
   </bookViews>
@@ -370,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +395,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -598,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,6 +661,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,7 +980,7 @@
   <dimension ref="A2:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1089,10 @@
     <row r="7" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="41" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="33">
@@ -1103,10 +1111,10 @@
     <row r="8" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="41" t="s">
         <v>89</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -1119,16 +1127,16 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="41" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="20" t="s">
@@ -1141,16 +1149,16 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="41" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="20" t="s">
@@ -1163,10 +1171,10 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="41" t="s">
         <v>83</v>
       </c>
       <c r="F11" s="20" t="s">
